--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y532"/>
+  <dimension ref="A1:Y534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32218,7 +32218,7 @@
       </c>
       <c r="R531" s="2" t="inlineStr"/>
     </row>
-    <row r="532">
+    <row r="532" ht="15" customHeight="1">
       <c r="A532" t="inlineStr">
         <is>
           <t>A 38881-2023</t>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32274,6 +32274,125 @@
         <v>0</v>
       </c>
       <c r="R532" s="2" t="inlineStr"/>
+    </row>
+    <row r="533" ht="15" customHeight="1">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>A 42928-2023</t>
+        </is>
+      </c>
+      <c r="B533" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C533" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>MOTALA</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G533" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0</v>
+      </c>
+      <c r="J533" t="n">
+        <v>0</v>
+      </c>
+      <c r="K533" t="n">
+        <v>0</v>
+      </c>
+      <c r="L533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N533" t="n">
+        <v>0</v>
+      </c>
+      <c r="O533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R533" s="2" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>A 43257-2023</t>
+        </is>
+      </c>
+      <c r="B534" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C534" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>MOTALA</t>
+        </is>
+      </c>
+      <c r="G534" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0</v>
+      </c>
+      <c r="J534" t="n">
+        <v>0</v>
+      </c>
+      <c r="K534" t="n">
+        <v>0</v>
+      </c>
+      <c r="L534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N534" t="n">
+        <v>0</v>
+      </c>
+      <c r="O534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R534" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -635,27 +635,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 10102-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 10102-2020.xlsx", "A 10102-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 10102-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 10102-2020.png", "A 10102-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 10102-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 10102-2020.docx", "A 10102-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 10102-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 10102-2020.docx", "A 10102-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 10102-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 10102-2020.docx", "A 10102-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 10102-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 10102-2020.docx", "A 10102-2020")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,31 +726,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 47184-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 47184-2019.xlsx", "A 47184-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 47184-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 47184-2019.png", "A 47184-2019")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/knärot/A 47184-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/knärot/A 47184-2019.png", "A 47184-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 47184-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 47184-2019.docx", "A 47184-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 47184-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 47184-2019.docx", "A 47184-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 47184-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 47184-2019.docx", "A 47184-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 47184-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 47184-2019.docx", "A 47184-2019")</f>
         <v/>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -825,31 +825,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 24774-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 24774-2020.xlsx", "A 24774-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 24774-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 24774-2020.png", "A 24774-2020")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/knärot/A 24774-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/knärot/A 24774-2020.png", "A 24774-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 24774-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 24774-2020.docx", "A 24774-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 24774-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 24774-2020.docx", "A 24774-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 24774-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 24774-2020.docx", "A 24774-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 24774-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 24774-2020.docx", "A 24774-2020")</f>
         <v/>
       </c>
     </row>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 30637-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 30637-2022.xlsx", "A 30637-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 30637-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 30637-2022.png", "A 30637-2022")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/knärot/A 30637-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/knärot/A 30637-2022.png", "A 30637-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 30637-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 30637-2022.docx", "A 30637-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 30637-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 30637-2022.docx", "A 30637-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 30637-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 30637-2022.docx", "A 30637-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 30637-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 30637-2022.docx", "A 30637-2022")</f>
         <v/>
       </c>
     </row>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,27 +1021,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 19094-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 19094-2020.xlsx", "A 19094-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 19094-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 19094-2020.png", "A 19094-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 19094-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 19094-2020.docx", "A 19094-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 19094-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 19094-2020.docx", "A 19094-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 19094-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 19094-2020.docx", "A 19094-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 19094-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 19094-2020.docx", "A 19094-2020")</f>
         <v/>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,27 +1108,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 50566-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 50566-2019.xlsx", "A 50566-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 50566-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 50566-2019.png", "A 50566-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 50566-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 50566-2019.docx", "A 50566-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 50566-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 50566-2019.docx", "A 50566-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 50566-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 50566-2019.docx", "A 50566-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 50566-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 50566-2019.docx", "A 50566-2019")</f>
         <v/>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,31 +1199,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 3721-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 3721-2023.xlsx", "A 3721-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 3721-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 3721-2023.png", "A 3721-2023")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/knärot/A 3721-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/knärot/A 3721-2023.png", "A 3721-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 3721-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 3721-2023.docx", "A 3721-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 3721-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 3721-2023.docx", "A 3721-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 3721-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 3721-2023.docx", "A 3721-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 3721-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 3721-2023.docx", "A 3721-2023")</f>
         <v/>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,27 +1294,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 4512-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 4512-2023.xlsx", "A 4512-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 4512-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 4512-2023.png", "A 4512-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 4512-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 4512-2023.docx", "A 4512-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 4512-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 4512-2023.docx", "A 4512-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 4512-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 4512-2023.docx", "A 4512-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 4512-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 4512-2023.docx", "A 4512-2023")</f>
         <v/>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,27 +1380,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 18894-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 18894-2023.xlsx", "A 18894-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 18894-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 18894-2023.png", "A 18894-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 18894-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 18894-2023.docx", "A 18894-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 18894-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 18894-2023.docx", "A 18894-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 18894-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 18894-2023.docx", "A 18894-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 18894-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 18894-2023.docx", "A 18894-2023")</f>
         <v/>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,27 +1470,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 71297-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 71297-2018.xlsx", "A 71297-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 71297-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 71297-2018.png", "A 71297-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 71297-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 71297-2018.docx", "A 71297-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 71297-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 71297-2018.docx", "A 71297-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 71297-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 71297-2018.docx", "A 71297-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 71297-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 71297-2018.docx", "A 71297-2018")</f>
         <v/>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,27 +1560,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 30060-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 30060-2019.xlsx", "A 30060-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 30060-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 30060-2019.png", "A 30060-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 30060-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 30060-2019.docx", "A 30060-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 30060-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 30060-2019.docx", "A 30060-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 30060-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 30060-2019.docx", "A 30060-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 30060-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 30060-2019.docx", "A 30060-2019")</f>
         <v/>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,27 +1645,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 10926-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 10926-2020.xlsx", "A 10926-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 10926-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 10926-2020.png", "A 10926-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 10926-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 10926-2020.docx", "A 10926-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 10926-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 10926-2020.docx", "A 10926-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 10926-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 10926-2020.docx", "A 10926-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 10926-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 10926-2020.docx", "A 10926-2020")</f>
         <v/>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,27 +1735,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 16730-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 16730-2020.xlsx", "A 16730-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 16730-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 16730-2020.png", "A 16730-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 16730-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 16730-2020.docx", "A 16730-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 16730-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 16730-2020.docx", "A 16730-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 16730-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 16730-2020.docx", "A 16730-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 16730-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 16730-2020.docx", "A 16730-2020")</f>
         <v/>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,27 +1825,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 19096-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 19096-2020.xlsx", "A 19096-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 19096-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 19096-2020.png", "A 19096-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 19096-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 19096-2020.docx", "A 19096-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 19096-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 19096-2020.docx", "A 19096-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 19096-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 19096-2020.docx", "A 19096-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 19096-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 19096-2020.docx", "A 19096-2020")</f>
         <v/>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1910,27 +1910,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 42014-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 42014-2020.xlsx", "A 42014-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 42014-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 42014-2020.png", "A 42014-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 42014-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 42014-2020.docx", "A 42014-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 42014-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 42014-2020.docx", "A 42014-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 42014-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 42014-2020.docx", "A 42014-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 42014-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 42014-2020.docx", "A 42014-2020")</f>
         <v/>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1995,27 +1995,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 16870-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 16870-2021.xlsx", "A 16870-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 16870-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 16870-2021.png", "A 16870-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 16870-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 16870-2021.docx", "A 16870-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 16870-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 16870-2021.docx", "A 16870-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 16870-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 16870-2021.docx", "A 16870-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 16870-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 16870-2021.docx", "A 16870-2021")</f>
         <v/>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2080,27 +2080,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 49305-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 49305-2021.xlsx", "A 49305-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 49305-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 49305-2021.png", "A 49305-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 49305-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 49305-2021.docx", "A 49305-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 49305-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 49305-2021.docx", "A 49305-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 49305-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 49305-2021.docx", "A 49305-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 49305-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 49305-2021.docx", "A 49305-2021")</f>
         <v/>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2170,27 +2170,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 72192-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/artfynd/A 72192-2021.xlsx", "A 72192-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 72192-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/kartor/A 72192-2021.png", "A 72192-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 72192-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 72192-2021.docx", "A 72192-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 72192-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 72192-2021.docx", "A 72192-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 72192-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 72192-2021.docx", "A 72192-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 72192-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 72192-2021.docx", "A 72192-2021")</f>
         <v/>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16723,23 +16723,23 @@
       </c>
       <c r="R266" s="2" t="inlineStr"/>
       <c r="U266">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/knärot/A 31910-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/knärot/A 31910-2020.png", "A 31910-2020")</f>
         <v/>
       </c>
       <c r="V266">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 31910-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 31910-2020.docx", "A 31910-2020")</f>
         <v/>
       </c>
       <c r="W266">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 31910-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 31910-2020.docx", "A 31910-2020")</f>
         <v/>
       </c>
       <c r="X266">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 31910-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 31910-2020.docx", "A 31910-2020")</f>
         <v/>
       </c>
       <c r="Y266">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 31910-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 31910-2020.docx", "A 31910-2020")</f>
         <v/>
       </c>
     </row>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22209,23 +22209,23 @@
       </c>
       <c r="R359" s="2" t="inlineStr"/>
       <c r="U359">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/knärot/A 32341-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/knärot/A 32341-2021.png", "A 32341-2021")</f>
         <v/>
       </c>
       <c r="V359">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 32341-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomål/A 32341-2021.docx", "A 32341-2021")</f>
         <v/>
       </c>
       <c r="W359">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 32341-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/klagomålsmail/A 32341-2021.docx", "A 32341-2021")</f>
         <v/>
       </c>
       <c r="X359">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 32341-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsyn/A 32341-2021.docx", "A 32341-2021")</f>
         <v/>
       </c>
       <c r="Y359">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 32341-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOTALA/tillsynsmail/A 32341-2021.docx", "A 32341-2021")</f>
         <v/>
       </c>
     </row>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45182</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>45183</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45182</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>45183</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y534"/>
+  <dimension ref="A1:Y535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45182</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32337,7 +32337,7 @@
       </c>
       <c r="R533" s="2" t="inlineStr"/>
     </row>
-    <row r="534">
+    <row r="534" ht="15" customHeight="1">
       <c r="A534" t="inlineStr">
         <is>
           <t>A 43257-2023</t>
@@ -32347,7 +32347,7 @@
         <v>45183</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32393,6 +32393,63 @@
         <v>0</v>
       </c>
       <c r="R534" s="2" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>A 44298-2023</t>
+        </is>
+      </c>
+      <c r="B535" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C535" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>MOTALA</t>
+        </is>
+      </c>
+      <c r="G535" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0</v>
+      </c>
+      <c r="J535" t="n">
+        <v>0</v>
+      </c>
+      <c r="K535" t="n">
+        <v>0</v>
+      </c>
+      <c r="L535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N535" t="n">
+        <v>0</v>
+      </c>
+      <c r="O535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R535" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45182</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>45183</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>45187</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45182</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>45183</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>45187</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y535"/>
+  <dimension ref="A1:Y536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45182</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>45183</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32394,7 +32394,7 @@
       </c>
       <c r="R534" s="2" t="inlineStr"/>
     </row>
-    <row r="535">
+    <row r="535" ht="15" customHeight="1">
       <c r="A535" t="inlineStr">
         <is>
           <t>A 44298-2023</t>
@@ -32404,7 +32404,7 @@
         <v>45187</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32450,6 +32450,68 @@
         <v>0</v>
       </c>
       <c r="R535" s="2" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>A 46437-2023</t>
+        </is>
+      </c>
+      <c r="B536" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C536" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>MOTALA</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G536" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0</v>
+      </c>
+      <c r="J536" t="n">
+        <v>0</v>
+      </c>
+      <c r="K536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N536" t="n">
+        <v>0</v>
+      </c>
+      <c r="O536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R536" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y536"/>
+  <dimension ref="A1:Y537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45182</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>45183</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>45187</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32451,7 +32451,7 @@
       </c>
       <c r="R535" s="2" t="inlineStr"/>
     </row>
-    <row r="536">
+    <row r="536" ht="15" customHeight="1">
       <c r="A536" t="inlineStr">
         <is>
           <t>A 46437-2023</t>
@@ -32461,7 +32461,7 @@
         <v>45197</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32512,6 +32512,63 @@
         <v>0</v>
       </c>
       <c r="R536" s="2" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>A 47215-2023</t>
+        </is>
+      </c>
+      <c r="B537" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C537" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>MOTALA</t>
+        </is>
+      </c>
+      <c r="G537" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0</v>
+      </c>
+      <c r="J537" t="n">
+        <v>0</v>
+      </c>
+      <c r="K537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N537" t="n">
+        <v>0</v>
+      </c>
+      <c r="O537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R537" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45182</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>45183</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>45187</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32461,7 +32461,7 @@
         <v>45197</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>45202</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45182</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>45183</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>45187</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32461,7 +32461,7 @@
         <v>45197</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>45202</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -572,7 +572,7 @@
         <v>43887</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43978</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43936</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44956</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45044</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43633</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43936</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43339</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43406</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43475</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43475</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43488</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43545</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43549</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43564</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43566</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43576</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43609</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43609</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43609</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43609</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43612</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43621</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43621</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43630</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43633</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43633</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43633</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43633</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43633</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43635</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43643</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43654</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43663</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43665</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43665</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43665</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43669</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43669</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43669</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43677</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43677</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43678</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43683</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43683</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43683</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43683</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43690</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43690</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43698</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43698</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43710</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43710</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43713</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43721</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43724</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43726</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43735</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43738</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43738</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43746</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43749</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43753</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43753</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43755</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43763</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43767</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43774</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43779</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43781</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43782</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43795</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43798</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43808</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43828</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43832</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43844</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43859</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43859</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43874</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43874</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43880</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43885</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43885</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>43887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>43887</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43887</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43894</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43894</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>43899</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43901</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43905</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43906</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43906</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43920</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43928</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>43936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43943</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>43978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43979</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43984</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43993</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44007</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44014</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44018</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44021</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44022</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>44039</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44057</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44060</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44060</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44063</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44063</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44064</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44064</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44067</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44068</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44083</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44083</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44095</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44095</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44095</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44097</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44103</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44106</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44112</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44130</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44137</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44140</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44140</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44152</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44158</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44161</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44167</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44167</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44173</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44176</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44194</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44200</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44200</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44218</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44242</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44245</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44255</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44255</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>44259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>44265</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44266</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44271</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44271</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44274</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44274</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44280</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44307</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44308</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44309</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44313</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44313</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44320</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44326</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44327</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44339</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44348</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44355</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44356</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44356</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44357</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44358</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44358</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44358</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44384</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44392</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44398</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44413</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44413</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44414</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44418</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44421</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44421</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44424</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44425</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44427</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44431</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44433</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44434</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44452</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44455</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44455</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44455</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44455</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44455</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44474</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44475</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44487</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>44487</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44494</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44501</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>44503</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44503</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44516</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44516</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44525</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44526</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44528</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44537</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44539</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44544</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44547</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44565</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44571</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44573</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44573</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44575</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44586</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44594</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44595</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44596</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44603</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44606</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44608</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44613</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44615</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44617</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44628</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44637</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44637</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44641</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44645</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44645</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44648</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44655</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44676</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44677</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44692</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44732</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44747</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44748</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44755</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44776</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44776</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44776</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44782</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44799</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44804</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44809</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44809</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44809</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44809</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44819</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44819</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44819</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44827</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44830</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44832</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44834</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44846</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44853</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44858</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44860</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44865</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44887</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44907</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44935</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44935</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44942</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44942</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44949</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44953</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44958</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44981</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44998</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44999</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45001</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45030</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45034</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45034</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45043</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45043</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45063</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45063</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45068</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45068</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45069</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45079</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45079</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45082</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45084</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45092</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45092</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45097</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45099</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45103</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45114</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45161</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45182</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>45183</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>45187</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32461,7 +32461,7 @@
         <v>45197</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>45202</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
